--- a/Skills and Items.xlsx
+++ b/Skills and Items.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="162">
   <si>
     <t>Common</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Slash</t>
   </si>
   <si>
-    <t>Deal Atk+1.2xStr+10 Dmg</t>
-  </si>
-  <si>
     <t>Armor Break</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>Hell Blade</t>
   </si>
   <si>
-    <t>Deal Dmg equal to Atk+1.8xStr. Take 10% Dmg</t>
-  </si>
-  <si>
     <t>Battle Cry</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>Deal Dmg equal to 1xStr</t>
   </si>
   <si>
-    <t>Reckless Strik</t>
-  </si>
-  <si>
     <t>Does not add Atk value to the Dmg, becoming mostly a Resource Generator. Might Swap Str and Atk (i.e. deal atk dmg, don't include str in the calculation)</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>Enemy takes 20% extra Dmg as Curse Dmg for 5 turns</t>
   </si>
   <si>
-    <t>Deal Dmg equal to Atk+2xStr, Lose all Defence for 2 turn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design Logic: </t>
   </si>
   <si>
@@ -372,6 +360,150 @@
   </si>
   <si>
     <t>Most subclasses should have at least 1 quick skill, some might have more.</t>
+  </si>
+  <si>
+    <t>Reckless Strike</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Atk+1.8xStr. Lose 10% of current HP</t>
+  </si>
+  <si>
+    <t>Deal Atk+1.2xStr</t>
+  </si>
+  <si>
+    <t>Wind Up</t>
+  </si>
+  <si>
+    <t>Gain 1xStr dmg bonus for the next attack</t>
+  </si>
+  <si>
+    <t>Bash</t>
+  </si>
+  <si>
+    <t>Dazed</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Atk+2xStr, Lose all Defence for 2 turns</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to 1.5Atk+1xStr, ignore 50% enemy Def</t>
+  </si>
+  <si>
+    <t>Pierce Through</t>
+  </si>
+  <si>
+    <t>Fury</t>
+  </si>
+  <si>
+    <t>For the next 4 turns, gain Rage whenever you deal Dmg.</t>
+  </si>
+  <si>
+    <t>Rage= 25%(?) of the Dmg dealt.</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Atk+1.3xStr, 30% chance the enemy is Stunned for a turn.</t>
+  </si>
+  <si>
+    <t>Daze</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to 2xAtk, Reduce Enemy Atk by 25% for 2 turns</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Magic Arrow</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Atk+MP</t>
+  </si>
+  <si>
+    <t>Drain</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to MP, Ignore Def, Gain that much Mana</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Arcane Acuity</t>
+  </si>
+  <si>
+    <t>Gain Int mana each turn for 3-5 turns</t>
+  </si>
+  <si>
+    <t>Arcane Explosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal Atk+3xMP, Ignore 50% Def/resist </t>
+  </si>
+  <si>
+    <t>Fire Bolt</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Int+MP, Half Physical Half Fire</t>
+  </si>
+  <si>
+    <t>Zap</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Int, X% Atk reduction. X= Half the Dmg dealth</t>
+  </si>
+  <si>
+    <t>Water Whip</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Str+MP</t>
+  </si>
+  <si>
+    <t>Ice Shield</t>
+  </si>
+  <si>
+    <t>Gain 2xMP Block</t>
+  </si>
+  <si>
+    <t>Crystalised Mana</t>
+  </si>
+  <si>
+    <t>After 2 turns, change this skill to Consume Crystal.</t>
+  </si>
+  <si>
+    <t>Consume Crystal: Gain 100 Mana. 2 Turns Cooldown.</t>
+  </si>
+  <si>
+    <t>Water Snare</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Str each turn. Reduce Enemy Atk by 50%. Lasts 3 turns.</t>
+  </si>
+  <si>
+    <t>Chain Rain</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to 2xAtk+ 2xMP. Use lowest resist of Fire, Cold, Lightning</t>
+  </si>
+  <si>
+    <t>Meditate</t>
+  </si>
+  <si>
+    <t>Gain Int+ 50% of lost HP Mana</t>
+  </si>
+  <si>
+    <t>Rejuvanate</t>
+  </si>
+  <si>
+    <t>Gain Int HP and 1.5xInt Mana each turn for 3 turns.</t>
+  </si>
+  <si>
+    <t>Nature's Wrath</t>
+  </si>
+  <si>
+    <t>Deal Dmg equal to Atk each turn. Lower Atk and Def of enemy by 50%. Lasts 3 turns.</t>
+  </si>
+  <si>
+    <t>G?</t>
   </si>
 </sst>
 </file>
@@ -484,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -495,6 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,15 +938,15 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -834,7 +970,7 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F1" t="s">
@@ -863,14 +999,14 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
@@ -893,10 +1029,13 @@
       </c>
     </row>
     <row r="5" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F5">
@@ -910,7 +1049,7 @@
       <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F6">
@@ -924,10 +1063,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="s">
@@ -941,7 +1083,7 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F8">
@@ -963,7 +1105,7 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F10">
@@ -976,11 +1118,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F11">
@@ -997,7 +1139,7 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F12">
@@ -1019,7 +1161,7 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="I14" t="s">
@@ -1030,7 +1172,7 @@
       <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I15" t="s">
@@ -1041,7 +1183,7 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>76</v>
       </c>
       <c r="I16" t="s">
@@ -1055,10 +1197,10 @@
     </row>
     <row r="18" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="F18">
         <v>-30</v>
@@ -1068,12 +1210,12 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="F19">
         <v>-20</v>
@@ -1087,11 +1229,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>77</v>
       </c>
       <c r="F21" t="s">
@@ -1100,7 +1242,7 @@
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1123,22 +1265,22 @@
       <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="E25" t="s">
-        <v>82</v>
+      <c r="E25" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="F25">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="F26">
         <v>-20</v>
@@ -1147,18 +1289,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
     <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
+        <v>119</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="F29">
         <v>-30</v>
@@ -1167,14 +1325,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30">
+        <v>-30</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31">
+        <v>-25</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
     <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:9" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33">
+        <v>-30</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1182,7 +1379,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:9" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37">
+        <v>-50</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="38" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
@@ -1201,29 +1417,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44">
-        <v>-25</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:9" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
       <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
         <v>94</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" t="s">
-        <v>96</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -1238,12 +1444,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:9" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F48">
         <v>-30</v>
@@ -1252,7 +1458,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49">
+        <v>-25</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
     <row r="50" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
@@ -1288,10 +1507,10 @@
     </row>
     <row r="63" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="F63">
         <v>-20</v>
@@ -1300,15 +1519,18 @@
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
       <c r="D64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="F64">
         <v>12</v>
@@ -1317,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -1334,12 +1556,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="F71">
         <v>-50</v>
@@ -1481,162 +1703,332 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F141">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>130</v>
+      </c>
+      <c r="D149" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F149" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" t="s">
+        <v>136</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F150">
+        <v>-30</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="2:3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F156">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>140</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F160">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>142</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F161">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F162">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>146</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F164">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165" t="s">
+        <v>148</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F165">
+        <v>-20</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="J165" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>151</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F168">
+        <v>-25</v>
+      </c>
+      <c r="G168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="3:10" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="3:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:10" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="3:10" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="2:3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:10" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>153</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>130</v>
+      </c>
+      <c r="D179" t="s">
+        <v>155</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>161</v>
+      </c>
+      <c r="D187" t="s">
+        <v>157</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F187">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="2:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="3:3" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="3:7" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>159</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F194">
+        <v>-120</v>
+      </c>
+      <c r="G194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1686,7 +2078,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,13 +2098,13 @@
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,7 +2119,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1739,13 +2131,13 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1760,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1790,7 +2182,7 @@
         <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1812,22 +2204,24 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
